--- a/results/minimal_seats-Croatia.xlsx
+++ b/results/minimal_seats-Croatia.xlsx
@@ -14,66 +14,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Key</t>
   </si>
   <si>
-    <t>- -</t>
-  </si>
-  <si>
-    <t>HDS</t>
-  </si>
-  <si>
-    <t>HDZ</t>
-  </si>
-  <si>
-    <t>HNS</t>
-  </si>
-  <si>
-    <t>HSL</t>
-  </si>
-  <si>
-    <t>HSP</t>
-  </si>
-  <si>
-    <t>HSS</t>
-  </si>
-  <si>
-    <t>HSU</t>
-  </si>
-  <si>
-    <t>SDP</t>
-  </si>
-  <si>
-    <t>IDS</t>
-  </si>
-  <si>
-    <t>HL-</t>
-  </si>
-  <si>
-    <t>Ind</t>
-  </si>
-  <si>
-    <t>BM3</t>
-  </si>
-  <si>
-    <t>MOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZZ </t>
-  </si>
-  <si>
-    <t>DPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS </t>
-  </si>
-  <si>
-    <t>SSI</t>
+    <t>- - Ethnic Constituencies (-, -)</t>
+  </si>
+  <si>
+    <t>HDSS - Croatian Democratic Peasants Party (Hrvatska Demokratska Seljačka Stranka, HDSS)</t>
+  </si>
+  <si>
+    <t>HDZ - Croatian Democratic Union (Hrvatska Demokratska Zajednica, HDZ)</t>
+  </si>
+  <si>
+    <t>HNS - Croatian People's Party-Liberal Democrats (Hrvatska Narodna Stranka-Liberalni Demokrati, HNS)</t>
+  </si>
+  <si>
+    <t>HSLS - Croation Social-Liberal Party (Hrvatska Socijalno Liberalna Stranka, HSLS)</t>
+  </si>
+  <si>
+    <t>HSP - Croatian Party of Rights (Hrvatska Stranka Prava, HSP)</t>
+  </si>
+  <si>
+    <t>HSS - Croatian Peasant Party (Hrvatska Seljačka Stranka, HSS)</t>
+  </si>
+  <si>
+    <t>HSU - Croatian Party of Pensioners (Hrvatska Stranka Umirovljenika, HSU)</t>
+  </si>
+  <si>
+    <t>SDP - Social Democratic Party of Croatia (Socijaldemokratska Partija Hrvatske, SDP)</t>
+  </si>
+  <si>
+    <t>HDSSB - Croatian Democratic Alliance of Slavonia and Baranja and allies (HDSSB-HDSSD-ZH) (Hrvatski Demokratski Savez Slavonije I Baranje, HDSSB)</t>
+  </si>
+  <si>
+    <t>IDS - Istrian Democratic Assembly (Istarski Demokratski Sabor, IDS)</t>
+  </si>
+  <si>
+    <t>HL-SR - Croatian Labourists – Labour Party (Hrvatski Laburisti-Stranka Rada, HL-SR)</t>
+  </si>
+  <si>
+    <t>HSP-AS - Croatian Party of Rights-Dr. Ante Starčević (Hrvatska Stranka Prava Dr. Ante Starčević, HSP-AS)</t>
+  </si>
+  <si>
+    <t>Ind-IG - Independent List of Ivan Grubsic (Neovisna Lista - Ivan Grubišić, Ind-IG)</t>
+  </si>
+  <si>
+    <t>BM365 - Bandic Milan Party of Labour and Solidarity (Bandic Milan 365-Stranka ´ rada i solidarnosti, BM365)</t>
+  </si>
+  <si>
+    <t>MOST - Bridge of Independent Lists (Most nezavisnih lista, MOST)</t>
+  </si>
+  <si>
+    <t>ZZ - Human Shield (Živi zid, ZZ)</t>
+  </si>
+  <si>
+    <t>Ind-ZG - Independent List of Željko Glasnovic (Neovisna Lista - Željko Glasnovic, Ind-ZG)</t>
+  </si>
+  <si>
+    <t>DPMŠ - Miroslav Škoro Homeland Movement (Domovinski pokret Miroslava Škore, DPMŠ)</t>
+  </si>
+  <si>
+    <t>M! - We Can! (Možemo!, M!)</t>
+  </si>
+  <si>
+    <t>NS - Our Party (Naša Stranka, NS)</t>
+  </si>
+  <si>
+    <t>SSIP - Party With a First and Last Name (Stranka s imenom i prezimenom, SSIP)</t>
   </si>
   <si>
     <t>2003</t>
@@ -449,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,10 +525,19 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -549,16 +567,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
       <c r="D3">
         <v>21</v>
       </c>
@@ -583,44 +598,44 @@
       <c r="K3">
         <v>3</v>
       </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="K4">
         <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
@@ -635,25 +650,25 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>6</v>
+      <c r="L5">
+        <v>1</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -662,24 +677,27 @@
         <v>12</v>
       </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>10</v>
       </c>
-      <c r="P6">
-        <v>6</v>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -693,19 +711,19 @@
       <c r="J7">
         <v>7</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>7</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
         <v>3</v>
       </c>
     </row>
